--- a/路线测试文件/test-router - 两点不可达情况.xlsx
+++ b/路线测试文件/test-router - 两点不可达情况.xlsx
@@ -1,19 +1,20 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="22730"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="23029"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Janspiry\Desktop\new_Delivery\路线测试文件\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="I:\GithubRepositories\new_Delivery\路线测试文件\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{EE32C227-F6E2-45A9-AF77-62722372BF1E}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5B54B3D9-175E-4B7B-948B-72A426044B17}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="330" windowWidth="20730" windowHeight="11310" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="825" windowWidth="20730" windowHeight="10815" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
+    <sheet name="节点信息" sheetId="1" r:id="rId1"/>
+    <sheet name="车辆信息" sheetId="2" r:id="rId2"/>
   </sheets>
   <calcPr calcId="162913"/>
   <extLst>
@@ -25,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="20" uniqueCount="14">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="21" uniqueCount="15">
   <si>
     <t>Vehicle_number</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -81,6 +82,9 @@
   <si>
     <t>Center_name</t>
     <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>东风</t>
   </si>
 </sst>
 </file>
@@ -442,27 +446,20 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:T21"/>
+  <dimension ref="A1:O21"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="K7" sqref="K7"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="D1" sqref="D1:K1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.625" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="2" width="8.625" style="4"/>
     <col min="3" max="3" width="8.5" style="4" customWidth="1"/>
-    <col min="4" max="4" width="11.875" style="4" customWidth="1"/>
-    <col min="5" max="5" width="16" style="4" customWidth="1"/>
-    <col min="6" max="6" width="11.625" style="4" customWidth="1"/>
-    <col min="7" max="7" width="10.875" style="4" customWidth="1"/>
-    <col min="8" max="8" width="15.5" style="4" customWidth="1"/>
-    <col min="9" max="9" width="14.375" style="4" customWidth="1"/>
-    <col min="10" max="11" width="14.875" style="4" customWidth="1"/>
-    <col min="12" max="16384" width="8.625" style="4"/>
+    <col min="4" max="16384" width="8.625" style="4"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A1" s="4" t="s">
         <v>3</v>
       </c>
@@ -472,59 +469,44 @@
       <c r="C1" s="4" t="s">
         <v>9</v>
       </c>
-      <c r="D1" s="4" t="s">
+      <c r="D1" s="1">
+        <v>0</v>
+      </c>
+      <c r="E1" s="1">
+        <v>1</v>
+      </c>
+      <c r="F1" s="1">
+        <v>2</v>
+      </c>
+      <c r="G1" s="3">
+        <v>3</v>
+      </c>
+      <c r="H1" s="3">
+        <v>4</v>
+      </c>
+      <c r="I1" s="3">
+        <v>5</v>
+      </c>
+      <c r="J1" s="3">
+        <v>6</v>
+      </c>
+      <c r="K1" s="3">
+        <v>7</v>
+      </c>
+      <c r="L1" s="3">
+        <v>8</v>
+      </c>
+      <c r="M1" s="4" t="s">
         <v>10</v>
       </c>
-      <c r="E1" s="4" t="s">
+      <c r="N1" s="4" t="s">
         <v>11</v>
       </c>
-      <c r="F1" s="4" t="s">
+      <c r="O1" s="4" t="s">
         <v>12</v>
       </c>
-      <c r="G1" s="4" t="s">
-        <v>5</v>
-      </c>
-      <c r="H1" s="3" t="s">
-        <v>2</v>
-      </c>
-      <c r="I1" s="3" t="s">
-        <v>0</v>
-      </c>
-      <c r="J1" s="3" t="s">
-        <v>1</v>
-      </c>
-      <c r="K1" s="3" t="s">
-        <v>13</v>
-      </c>
-      <c r="L1" s="1">
-        <v>0</v>
-      </c>
-      <c r="M1" s="1">
-        <v>1</v>
-      </c>
-      <c r="N1" s="1">
-        <v>2</v>
-      </c>
-      <c r="O1" s="3">
-        <v>3</v>
-      </c>
-      <c r="P1" s="3">
-        <v>4</v>
-      </c>
-      <c r="Q1" s="3">
-        <v>5</v>
-      </c>
-      <c r="R1" s="3">
-        <v>6</v>
-      </c>
-      <c r="S1" s="3">
-        <v>7</v>
-      </c>
-      <c r="T1" s="3">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="2" spans="1:20" x14ac:dyDescent="0.2">
+    </row>
+    <row r="2" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A2" s="4" t="s">
         <v>6</v>
       </c>
@@ -534,50 +516,35 @@
       <c r="C2" s="4">
         <v>0</v>
       </c>
-      <c r="G2" s="4">
-        <v>1</v>
-      </c>
-      <c r="H2" s="5">
-        <v>8</v>
-      </c>
-      <c r="I2" s="5">
-        <v>8</v>
-      </c>
-      <c r="J2" s="5">
-        <v>50</v>
-      </c>
-      <c r="K2" s="5">
-        <v>0</v>
+      <c r="D2" s="2">
+        <v>0</v>
+      </c>
+      <c r="E2" s="2">
+        <v>7.4</v>
+      </c>
+      <c r="F2" s="2">
+        <v>12.1</v>
+      </c>
+      <c r="G2" s="2">
+        <v>5.3</v>
+      </c>
+      <c r="H2" s="2">
+        <v>6.6</v>
+      </c>
+      <c r="I2" s="2">
+        <v>8.1999999999999993</v>
+      </c>
+      <c r="J2" s="2">
+        <v>11.9</v>
+      </c>
+      <c r="K2" s="2">
+        <v>11.2</v>
       </c>
       <c r="L2" s="2">
-        <v>0</v>
-      </c>
-      <c r="M2" s="2">
-        <v>7.4</v>
-      </c>
-      <c r="N2" s="2">
-        <v>12.1</v>
-      </c>
-      <c r="O2" s="2">
-        <v>5.3</v>
-      </c>
-      <c r="P2" s="2">
-        <v>6.6</v>
-      </c>
-      <c r="Q2" s="2">
-        <v>8.1999999999999993</v>
-      </c>
-      <c r="R2" s="2">
-        <v>11.9</v>
-      </c>
-      <c r="S2" s="2">
-        <v>11.2</v>
-      </c>
-      <c r="T2" s="2">
         <v>10.8</v>
       </c>
     </row>
-    <row r="3" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A3" s="4" t="s">
         <v>7</v>
       </c>
@@ -587,43 +554,38 @@
       <c r="C3" s="2">
         <v>2</v>
       </c>
-      <c r="D3" s="2"/>
-      <c r="E3" s="2"/>
-      <c r="F3" s="2"/>
-      <c r="G3" s="2"/>
-      <c r="H3" s="1"/>
-      <c r="I3" s="1"/>
-      <c r="J3" s="1"/>
-      <c r="K3" s="1"/>
+      <c r="D3" s="2">
+        <v>7.4</v>
+      </c>
+      <c r="E3" s="2">
+        <v>0</v>
+      </c>
+      <c r="F3" s="2">
+        <v>5.8</v>
+      </c>
+      <c r="G3" s="2">
+        <v>9</v>
+      </c>
+      <c r="H3" s="2">
+        <v>7.1</v>
+      </c>
+      <c r="I3" s="2">
+        <v>11.4</v>
+      </c>
+      <c r="J3" s="2">
+        <v>12.8</v>
+      </c>
+      <c r="K3" s="2">
+        <v>6.9</v>
+      </c>
       <c r="L3" s="2">
-        <v>7.4</v>
-      </c>
-      <c r="M3" s="2">
-        <v>0</v>
-      </c>
-      <c r="N3" s="2">
-        <v>5.8</v>
-      </c>
-      <c r="O3" s="2">
-        <v>9</v>
-      </c>
-      <c r="P3" s="2">
-        <v>7.1</v>
-      </c>
-      <c r="Q3" s="2">
-        <v>11.4</v>
-      </c>
-      <c r="R3" s="2">
-        <v>12.8</v>
-      </c>
-      <c r="S3" s="2">
-        <v>6.9</v>
-      </c>
-      <c r="T3" s="2">
         <v>10.7</v>
       </c>
-    </row>
-    <row r="4" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="M3" s="2"/>
+      <c r="N3" s="2"/>
+      <c r="O3" s="2"/>
+    </row>
+    <row r="4" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A4" s="4" t="s">
         <v>7</v>
       </c>
@@ -633,41 +595,36 @@
       <c r="C4" s="2">
         <v>1.5</v>
       </c>
-      <c r="D4" s="2"/>
-      <c r="E4" s="2"/>
-      <c r="F4" s="2"/>
+      <c r="D4" s="2">
+        <v>12.1</v>
+      </c>
+      <c r="E4" s="2">
+        <v>5.8</v>
+      </c>
+      <c r="F4" s="2">
+        <v>0</v>
+      </c>
       <c r="G4" s="2"/>
-      <c r="H4" s="1"/>
-      <c r="I4" s="1"/>
-      <c r="J4" s="1"/>
-      <c r="K4" s="1"/>
+      <c r="H4" s="2">
+        <v>9.4</v>
+      </c>
+      <c r="I4" s="2">
+        <v>10.1</v>
+      </c>
+      <c r="J4" s="2">
+        <v>13.7</v>
+      </c>
+      <c r="K4" s="2">
+        <v>2.8</v>
+      </c>
       <c r="L4" s="2">
-        <v>12.1</v>
-      </c>
-      <c r="M4" s="2">
-        <v>5.8</v>
-      </c>
-      <c r="N4" s="2">
-        <v>0</v>
-      </c>
+        <v>9</v>
+      </c>
+      <c r="M4" s="2"/>
+      <c r="N4" s="2"/>
       <c r="O4" s="2"/>
-      <c r="P4" s="2">
-        <v>9.4</v>
-      </c>
-      <c r="Q4" s="2">
-        <v>10.1</v>
-      </c>
-      <c r="R4" s="2">
-        <v>13.7</v>
-      </c>
-      <c r="S4" s="2">
-        <v>2.8</v>
-      </c>
-      <c r="T4" s="2">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="5" spans="1:20" x14ac:dyDescent="0.2">
+    </row>
+    <row r="5" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A5" s="4" t="s">
         <v>7</v>
       </c>
@@ -677,41 +634,36 @@
       <c r="C5" s="2">
         <v>3</v>
       </c>
-      <c r="D5" s="2"/>
-      <c r="E5" s="2"/>
+      <c r="D5" s="2">
+        <v>5.3</v>
+      </c>
+      <c r="E5" s="2">
+        <v>9</v>
+      </c>
       <c r="F5" s="2"/>
-      <c r="G5" s="2"/>
-      <c r="H5" s="1"/>
-      <c r="I5" s="1"/>
-      <c r="J5" s="1"/>
-      <c r="K5" s="1"/>
+      <c r="G5" s="2">
+        <v>0</v>
+      </c>
+      <c r="H5" s="2">
+        <v>4.9000000000000004</v>
+      </c>
+      <c r="I5" s="2">
+        <v>4.0999999999999996</v>
+      </c>
+      <c r="J5" s="2">
+        <v>7.8</v>
+      </c>
+      <c r="K5" s="2">
+        <v>11.9</v>
+      </c>
       <c r="L5" s="2">
-        <v>5.3</v>
-      </c>
-      <c r="M5" s="2">
-        <v>9</v>
-      </c>
+        <v>8.5</v>
+      </c>
+      <c r="M5" s="2"/>
       <c r="N5" s="2"/>
-      <c r="O5" s="2">
-        <v>0</v>
-      </c>
-      <c r="P5" s="2">
-        <v>4.9000000000000004</v>
-      </c>
-      <c r="Q5" s="2">
-        <v>4.0999999999999996</v>
-      </c>
-      <c r="R5" s="2">
-        <v>7.8</v>
-      </c>
-      <c r="S5" s="2">
-        <v>11.9</v>
-      </c>
-      <c r="T5" s="2">
-        <v>8.5</v>
-      </c>
-    </row>
-    <row r="6" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="O5" s="2"/>
+    </row>
+    <row r="6" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A6" s="4" t="s">
         <v>7</v>
       </c>
@@ -721,39 +673,35 @@
       <c r="C6" s="4">
         <v>0.3</v>
       </c>
-      <c r="H6" s="1"/>
-      <c r="I6" s="1"/>
-      <c r="J6" s="1"/>
-      <c r="K6" s="1"/>
+      <c r="D6" s="2">
+        <v>6.6</v>
+      </c>
+      <c r="E6" s="2">
+        <v>7.1</v>
+      </c>
+      <c r="F6" s="2">
+        <v>9.4</v>
+      </c>
+      <c r="G6" s="2">
+        <v>4.9000000000000004</v>
+      </c>
+      <c r="H6" s="2">
+        <v>0</v>
+      </c>
+      <c r="I6" s="2">
+        <v>4</v>
+      </c>
+      <c r="J6" s="2">
+        <v>6</v>
+      </c>
+      <c r="K6" s="2">
+        <v>6.6</v>
+      </c>
       <c r="L6" s="2">
-        <v>6.6</v>
-      </c>
-      <c r="M6" s="2">
-        <v>7.1</v>
-      </c>
-      <c r="N6" s="2">
-        <v>9.4</v>
-      </c>
-      <c r="O6" s="2">
-        <v>4.9000000000000004</v>
-      </c>
-      <c r="P6" s="2">
-        <v>0</v>
-      </c>
-      <c r="Q6" s="2">
         <v>4</v>
       </c>
-      <c r="R6" s="2">
-        <v>6</v>
-      </c>
-      <c r="S6" s="2">
-        <v>6.6</v>
-      </c>
-      <c r="T6" s="2">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="7" spans="1:20" x14ac:dyDescent="0.2">
+    </row>
+    <row r="7" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A7" s="4" t="s">
         <v>7</v>
       </c>
@@ -763,39 +711,35 @@
       <c r="C7" s="4">
         <v>0.5</v>
       </c>
-      <c r="H7" s="1"/>
-      <c r="I7" s="1"/>
-      <c r="J7" s="1"/>
-      <c r="K7" s="1"/>
+      <c r="D7" s="2">
+        <v>8.1999999999999993</v>
+      </c>
+      <c r="E7" s="2">
+        <v>11.4</v>
+      </c>
+      <c r="F7" s="2">
+        <v>10.1</v>
+      </c>
+      <c r="G7" s="2">
+        <v>4.0999999999999996</v>
+      </c>
+      <c r="H7" s="2">
+        <v>4</v>
+      </c>
+      <c r="I7" s="2">
+        <v>0</v>
+      </c>
+      <c r="J7" s="2">
+        <v>3.9</v>
+      </c>
+      <c r="K7" s="2">
+        <v>10</v>
+      </c>
       <c r="L7" s="2">
-        <v>8.1999999999999993</v>
-      </c>
-      <c r="M7" s="2">
-        <v>11.4</v>
-      </c>
-      <c r="N7" s="2">
-        <v>10.1</v>
-      </c>
-      <c r="O7" s="2">
-        <v>4.0999999999999996</v>
-      </c>
-      <c r="P7" s="2">
-        <v>4</v>
-      </c>
-      <c r="Q7" s="2">
-        <v>0</v>
-      </c>
-      <c r="R7" s="2">
-        <v>3.9</v>
-      </c>
-      <c r="S7" s="2">
-        <v>10</v>
-      </c>
-      <c r="T7" s="2">
         <v>4.4000000000000004</v>
       </c>
     </row>
-    <row r="8" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A8" s="4" t="s">
         <v>7</v>
       </c>
@@ -805,39 +749,35 @@
       <c r="C8" s="4">
         <v>7</v>
       </c>
-      <c r="H8" s="1"/>
-      <c r="I8" s="1"/>
-      <c r="J8" s="1"/>
-      <c r="K8" s="1"/>
+      <c r="D8" s="2">
+        <v>11.9</v>
+      </c>
+      <c r="E8" s="2">
+        <v>12.8</v>
+      </c>
+      <c r="F8" s="2">
+        <v>13.7</v>
+      </c>
+      <c r="G8" s="2">
+        <v>7.8</v>
+      </c>
+      <c r="H8" s="2">
+        <v>6</v>
+      </c>
+      <c r="I8" s="2">
+        <v>3.9</v>
+      </c>
+      <c r="J8" s="2">
+        <v>0</v>
+      </c>
+      <c r="K8" s="2">
+        <v>10.8</v>
+      </c>
       <c r="L8" s="2">
-        <v>11.9</v>
-      </c>
-      <c r="M8" s="2">
-        <v>12.8</v>
-      </c>
-      <c r="N8" s="2">
-        <v>13.7</v>
-      </c>
-      <c r="O8" s="2">
-        <v>7.8</v>
-      </c>
-      <c r="P8" s="2">
-        <v>6</v>
-      </c>
-      <c r="Q8" s="2">
-        <v>3.9</v>
-      </c>
-      <c r="R8" s="2">
-        <v>0</v>
-      </c>
-      <c r="S8" s="2">
-        <v>10.8</v>
-      </c>
-      <c r="T8" s="2">
         <v>5.7</v>
       </c>
     </row>
-    <row r="9" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A9" s="4" t="s">
         <v>7</v>
       </c>
@@ -847,39 +787,35 @@
       <c r="C9" s="4">
         <v>4.3</v>
       </c>
-      <c r="H9" s="1"/>
-      <c r="I9" s="1"/>
-      <c r="J9" s="1"/>
-      <c r="K9" s="1"/>
+      <c r="D9" s="2">
+        <v>11.2</v>
+      </c>
+      <c r="E9" s="2">
+        <v>6.9</v>
+      </c>
+      <c r="F9" s="2">
+        <v>2.8</v>
+      </c>
+      <c r="G9" s="2">
+        <v>11.9</v>
+      </c>
+      <c r="H9" s="2">
+        <v>6.6</v>
+      </c>
+      <c r="I9" s="2">
+        <v>10</v>
+      </c>
+      <c r="J9" s="2">
+        <v>10.8</v>
+      </c>
+      <c r="K9" s="2">
+        <v>0</v>
+      </c>
       <c r="L9" s="2">
-        <v>11.2</v>
-      </c>
-      <c r="M9" s="2">
-        <v>6.9</v>
-      </c>
-      <c r="N9" s="2">
-        <v>2.8</v>
-      </c>
-      <c r="O9" s="2">
-        <v>11.9</v>
-      </c>
-      <c r="P9" s="2">
-        <v>6.6</v>
-      </c>
-      <c r="Q9" s="2">
-        <v>10</v>
-      </c>
-      <c r="R9" s="2">
-        <v>10.8</v>
-      </c>
-      <c r="S9" s="2">
-        <v>0</v>
-      </c>
-      <c r="T9" s="2">
         <v>5.5</v>
       </c>
     </row>
-    <row r="10" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A10" s="4" t="s">
         <v>8</v>
       </c>
@@ -889,136 +825,139 @@
       <c r="C10" s="4">
         <v>2.1</v>
       </c>
-      <c r="H10" s="1"/>
-      <c r="I10" s="1"/>
-      <c r="J10" s="1"/>
-      <c r="K10" s="1"/>
+      <c r="D10" s="2">
+        <v>10.8</v>
+      </c>
+      <c r="E10" s="2">
+        <v>10.7</v>
+      </c>
+      <c r="F10" s="2">
+        <v>9</v>
+      </c>
+      <c r="G10" s="2">
+        <v>8.5</v>
+      </c>
+      <c r="H10" s="2">
+        <v>4</v>
+      </c>
+      <c r="I10" s="2">
+        <v>4.4000000000000004</v>
+      </c>
+      <c r="J10" s="2">
+        <v>5.7</v>
+      </c>
+      <c r="K10" s="2">
+        <v>5.5</v>
+      </c>
       <c r="L10" s="2">
-        <v>10.8</v>
-      </c>
-      <c r="M10" s="2">
-        <v>10.7</v>
-      </c>
-      <c r="N10" s="2">
-        <v>9</v>
-      </c>
-      <c r="O10" s="2">
-        <v>8.5</v>
-      </c>
-      <c r="P10" s="2">
-        <v>4</v>
-      </c>
-      <c r="Q10" s="2">
-        <v>4.4000000000000004</v>
-      </c>
-      <c r="R10" s="2">
-        <v>5.7</v>
-      </c>
-      <c r="S10" s="2">
-        <v>5.5</v>
-      </c>
-      <c r="T10" s="2">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="11" spans="1:20" x14ac:dyDescent="0.2">
-      <c r="H11" s="1"/>
-      <c r="I11" s="1"/>
-      <c r="J11" s="1"/>
-      <c r="K11" s="1"/>
-      <c r="L11" s="2"/>
-      <c r="M11" s="2"/>
-      <c r="N11" s="2"/>
-    </row>
-    <row r="12" spans="1:20" x14ac:dyDescent="0.2">
-      <c r="H12" s="1"/>
-      <c r="I12" s="1"/>
-      <c r="J12" s="1"/>
-      <c r="K12" s="1"/>
-      <c r="L12" s="2"/>
-      <c r="M12" s="2"/>
-      <c r="N12" s="2"/>
-    </row>
-    <row r="13" spans="1:20" x14ac:dyDescent="0.2">
-      <c r="H13" s="1"/>
-      <c r="I13" s="1"/>
-      <c r="J13" s="1"/>
-      <c r="K13" s="1"/>
-      <c r="L13" s="2"/>
-      <c r="M13" s="2"/>
-      <c r="N13" s="2"/>
-    </row>
-    <row r="14" spans="1:20" x14ac:dyDescent="0.2">
-      <c r="H14" s="1"/>
-      <c r="I14" s="1"/>
-      <c r="J14" s="1"/>
-      <c r="K14" s="1"/>
-      <c r="L14" s="2"/>
-      <c r="M14" s="2"/>
-      <c r="N14" s="2"/>
-    </row>
-    <row r="15" spans="1:20" x14ac:dyDescent="0.2">
-      <c r="H15" s="1"/>
-      <c r="I15" s="1"/>
-      <c r="J15" s="1"/>
-      <c r="K15" s="1"/>
-      <c r="L15" s="2"/>
-      <c r="M15" s="2"/>
-      <c r="N15" s="2"/>
-    </row>
-    <row r="16" spans="1:20" x14ac:dyDescent="0.2">
-      <c r="H16" s="1"/>
-      <c r="I16" s="1"/>
-      <c r="J16" s="1"/>
-      <c r="K16" s="1"/>
-      <c r="L16" s="2"/>
-      <c r="M16" s="2"/>
-      <c r="N16" s="2"/>
-    </row>
-    <row r="17" spans="8:14" x14ac:dyDescent="0.2">
-      <c r="H17" s="1"/>
-      <c r="I17" s="1"/>
-      <c r="J17" s="1"/>
-      <c r="K17" s="1"/>
-      <c r="L17" s="2"/>
-      <c r="M17" s="2"/>
-      <c r="N17" s="2"/>
-    </row>
-    <row r="18" spans="8:14" x14ac:dyDescent="0.2">
-      <c r="H18" s="1"/>
-      <c r="I18" s="1"/>
-      <c r="J18" s="1"/>
-      <c r="K18" s="1"/>
-      <c r="L18" s="2"/>
-      <c r="M18" s="2"/>
-      <c r="N18" s="2"/>
-    </row>
-    <row r="19" spans="8:14" x14ac:dyDescent="0.2">
-      <c r="H19" s="1"/>
-      <c r="I19" s="1"/>
-      <c r="J19" s="1"/>
-      <c r="K19" s="1"/>
-      <c r="L19" s="2"/>
-      <c r="M19" s="2"/>
-      <c r="N19" s="2"/>
-    </row>
-    <row r="20" spans="8:14" x14ac:dyDescent="0.2">
-      <c r="H20" s="1"/>
-      <c r="I20" s="1"/>
-      <c r="J20" s="1"/>
-      <c r="K20" s="1"/>
-      <c r="L20" s="2"/>
-      <c r="M20" s="2"/>
-      <c r="N20" s="2"/>
-    </row>
-    <row r="21" spans="8:14" x14ac:dyDescent="0.2">
-      <c r="H21" s="1"/>
-      <c r="I21" s="1"/>
-      <c r="J21" s="1"/>
-      <c r="K21" s="1"/>
-      <c r="L21" s="2"/>
-      <c r="M21" s="2"/>
-      <c r="N21" s="2"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="11" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="D11" s="2"/>
+      <c r="E11" s="2"/>
+      <c r="F11" s="2"/>
+    </row>
+    <row r="12" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="D12" s="2"/>
+      <c r="E12" s="2"/>
+      <c r="F12" s="2"/>
+    </row>
+    <row r="13" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="D13" s="2"/>
+      <c r="E13" s="2"/>
+      <c r="F13" s="2"/>
+    </row>
+    <row r="14" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="D14" s="2"/>
+      <c r="E14" s="2"/>
+      <c r="F14" s="2"/>
+    </row>
+    <row r="15" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="D15" s="2"/>
+      <c r="E15" s="2"/>
+      <c r="F15" s="2"/>
+    </row>
+    <row r="16" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="D16" s="2"/>
+      <c r="E16" s="2"/>
+      <c r="F16" s="2"/>
+    </row>
+    <row r="17" spans="4:6" x14ac:dyDescent="0.2">
+      <c r="D17" s="2"/>
+      <c r="E17" s="2"/>
+      <c r="F17" s="2"/>
+    </row>
+    <row r="18" spans="4:6" x14ac:dyDescent="0.2">
+      <c r="D18" s="2"/>
+      <c r="E18" s="2"/>
+      <c r="F18" s="2"/>
+    </row>
+    <row r="19" spans="4:6" x14ac:dyDescent="0.2">
+      <c r="D19" s="2"/>
+      <c r="E19" s="2"/>
+      <c r="F19" s="2"/>
+    </row>
+    <row r="20" spans="4:6" x14ac:dyDescent="0.2">
+      <c r="D20" s="2"/>
+      <c r="E20" s="2"/>
+      <c r="F20" s="2"/>
+    </row>
+    <row r="21" spans="4:6" x14ac:dyDescent="0.2">
+      <c r="D21" s="2"/>
+      <c r="E21" s="2"/>
+      <c r="F21" s="2"/>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7C556B20-1B37-432F-BFD4-BDB4728F4199}">
+  <dimension ref="A1:E2"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A2" sqref="A2"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
+  <sheetData>
+    <row r="1" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A1" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="B1" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="C1" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="D1" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="E1" s="3" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A2" s="4" t="s">
+        <v>14</v>
+      </c>
+      <c r="B2" s="5">
+        <v>8</v>
+      </c>
+      <c r="C2" s="5">
+        <v>8</v>
+      </c>
+      <c r="D2" s="5">
+        <v>50</v>
+      </c>
+      <c r="E2" s="5">
+        <v>0</v>
+      </c>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
